--- a/output/reports/Measurements.xlsx
+++ b/output/reports/Measurements.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="EDAPrimer" r:id="rId5" sheetId="2"/>
-    <sheet name="EDA" r:id="rId6" sheetId="3"/>
+    <sheet name="EDAPrimer2" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="122211" calcOnSave="0"/>
 </workbook>
@@ -227,7 +227,7 @@
     <t>EDAPrimer</t>
   </si>
   <si>
-    <t>EDA</t>
+    <t>EDAPrimer2</t>
   </si>
 </sst>
 </file>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>87521.5</v>
+        <v>162388.0</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
@@ -889,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>12.901294498381876</v>
+        <v>19.671521035598705</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
@@ -982,16 +982,16 @@
         <v>0.0</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>77397.0</v>
+        <v>149127.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>700.0</v>
+        <v>1009.0</v>
       </c>
       <c r="D12" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>11.37378640776699</v>
+        <v>19.857605177993527</v>
       </c>
       <c r="F12" t="n" s="0">
         <v>0.0</v>
@@ -1035,16 +1035,16 @@
         <v>1.0</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>97646.0</v>
+        <v>143894.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>699.0</v>
+        <v>761.0</v>
       </c>
       <c r="D13" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>14.428802588996763</v>
+        <v>17.733009708737864</v>
       </c>
       <c r="F13" t="n" s="0">
         <v>0.0</v>
@@ -1080,6 +1080,165 @@
         <v>0.0</v>
       </c>
       <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>162388.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>1088.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>19.218446601941746</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>181338.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>941.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>21.723300970873787</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>182415.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>775.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>19.671521035598705</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -1138,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>2941.5</v>
+        <v>165773.0</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
@@ -1146,7 +1305,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>0.4285760517799353</v>
+        <v>18.681229773462782</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
@@ -1239,16 +1398,16 @@
         <v>0.0</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>2977.0</v>
+        <v>165773.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>49.0</v>
+        <v>1132.0</v>
       </c>
       <c r="D12" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>0.4752750809061489</v>
+        <v>18.741100323624597</v>
       </c>
       <c r="F12" t="n" s="0">
         <v>0.0</v>
@@ -1292,16 +1451,16 @@
         <v>1.0</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>2906.0</v>
+        <v>174375.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>17.0</v>
+        <v>1399.0</v>
       </c>
       <c r="D13" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>0.3818770226537217</v>
+        <v>19.45145631067961</v>
       </c>
       <c r="F13" t="n" s="0">
         <v>0.0</v>
@@ -1337,6 +1496,165 @@
         <v>0.0</v>
       </c>
       <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>166449.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>1119.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>18.681229773462782</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>133298.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>668.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>15.21359223300971</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>140785.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>715.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>17.401294498381876</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>

--- a/output/reports/Measurements.xlsx
+++ b/output/reports/Measurements.xlsx
@@ -8,8 +8,26 @@
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
-    <sheet name="EDAPrimer" r:id="rId5" sheetId="2"/>
-    <sheet name="EDAPrimer2" r:id="rId6" sheetId="3"/>
+    <sheet name="EDA10" r:id="rId5" sheetId="2"/>
+    <sheet name="EDA20" r:id="rId6" sheetId="3"/>
+    <sheet name="EDA30" r:id="rId7" sheetId="4"/>
+    <sheet name="EDA40" r:id="rId8" sheetId="5"/>
+    <sheet name="EDA50" r:id="rId9" sheetId="6"/>
+    <sheet name="EDA60" r:id="rId10" sheetId="7"/>
+    <sheet name="EDA70" r:id="rId11" sheetId="8"/>
+    <sheet name="EDA80" r:id="rId12" sheetId="9"/>
+    <sheet name="EDA90" r:id="rId13" sheetId="10"/>
+    <sheet name="EDA100" r:id="rId14" sheetId="11"/>
+    <sheet name="EDA110" r:id="rId15" sheetId="12"/>
+    <sheet name="EDA120" r:id="rId16" sheetId="13"/>
+    <sheet name="EDA130" r:id="rId17" sheetId="14"/>
+    <sheet name="EDA140" r:id="rId18" sheetId="15"/>
+    <sheet name="EDA150" r:id="rId19" sheetId="16"/>
+    <sheet name="EDA160" r:id="rId20" sheetId="17"/>
+    <sheet name="EDA170" r:id="rId21" sheetId="18"/>
+    <sheet name="EDA180" r:id="rId22" sheetId="19"/>
+    <sheet name="EDA190" r:id="rId23" sheetId="20"/>
+    <sheet name="EDA200" r:id="rId24" sheetId="21"/>
   </sheets>
   <calcPr calcId="122211" calcOnSave="0"/>
 </workbook>
@@ -78,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="68">
   <si>
     <t>${measurement.name}</t>
   </si>
@@ -224,10 +242,64 @@
     <t/>
   </si>
   <si>
-    <t>EDAPrimer</t>
+    <t>EDA10</t>
   </si>
   <si>
-    <t>EDAPrimer2</t>
+    <t>EDA20</t>
+  </si>
+  <si>
+    <t>EDA30</t>
+  </si>
+  <si>
+    <t>EDA40</t>
+  </si>
+  <si>
+    <t>EDA50</t>
+  </si>
+  <si>
+    <t>EDA60</t>
+  </si>
+  <si>
+    <t>EDA70</t>
+  </si>
+  <si>
+    <t>EDA80</t>
+  </si>
+  <si>
+    <t>EDA90</t>
+  </si>
+  <si>
+    <t>EDA100</t>
+  </si>
+  <si>
+    <t>EDA110</t>
+  </si>
+  <si>
+    <t>EDA120</t>
+  </si>
+  <si>
+    <t>EDA130</t>
+  </si>
+  <si>
+    <t>EDA140</t>
+  </si>
+  <si>
+    <t>EDA150</t>
+  </si>
+  <si>
+    <t>EDA160</t>
+  </si>
+  <si>
+    <t>EDA170</t>
+  </si>
+  <si>
+    <t>EDA180</t>
+  </si>
+  <si>
+    <t>EDA190</t>
+  </si>
+  <si>
+    <t>EDA200</t>
   </si>
 </sst>
 </file>
@@ -836,6 +908,4166 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true"/>
+    <col min="3" max="3" width="22.0" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true"/>
+    <col min="9" max="9" width="19.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.5703125" customWidth="true"/>
+    <col min="11" max="11" width="20.5703125" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="14" max="14" width="18.28515625" customWidth="true"/>
+    <col min="15" max="15" width="21.85546875" customWidth="true"/>
+    <col min="16" max="16" width="21.42578125" customWidth="true"/>
+    <col min="17" max="17" width="23.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" customHeight="true">
+      <c r="A1" t="s" s="5">
+        <v>56</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>4399.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.580906148867314</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>4528.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.5954692556634305</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>4213.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.580906148867314</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>4335.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.5355987055016181</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>4399.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>0.5258899676375405</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>5184.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.5922330097087378</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true"/>
+    <col min="3" max="3" width="22.0" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true"/>
+    <col min="9" max="9" width="19.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.5703125" customWidth="true"/>
+    <col min="11" max="11" width="20.5703125" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="14" max="14" width="18.28515625" customWidth="true"/>
+    <col min="15" max="15" width="21.85546875" customWidth="true"/>
+    <col min="16" max="16" width="21.42578125" customWidth="true"/>
+    <col min="17" max="17" width="23.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" customHeight="true">
+      <c r="A1" t="s" s="5">
+        <v>57</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>4925.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.6294498381877023</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>4331.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.6294498381877023</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>4925.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.6132686084142395</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>5898.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>1.051779935275081</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>21033.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>128.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>2.262135922330097</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>4370.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.56957928802589</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true"/>
+    <col min="3" max="3" width="22.0" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true"/>
+    <col min="9" max="9" width="19.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.5703125" customWidth="true"/>
+    <col min="11" max="11" width="20.5703125" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="14" max="14" width="18.28515625" customWidth="true"/>
+    <col min="15" max="15" width="21.85546875" customWidth="true"/>
+    <col min="16" max="16" width="21.42578125" customWidth="true"/>
+    <col min="17" max="17" width="23.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" customHeight="true">
+      <c r="A1" t="s" s="5">
+        <v>58</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>4468.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.6181229773462783</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>4325.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.6181229773462783</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>4483.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.6537216828478964</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>4468.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.6326860841423948</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>4528.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>0.5598705501618123</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>4377.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.5825242718446602</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true"/>
+    <col min="3" max="3" width="22.0" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true"/>
+    <col min="9" max="9" width="19.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.5703125" customWidth="true"/>
+    <col min="11" max="11" width="20.5703125" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="14" max="14" width="18.28515625" customWidth="true"/>
+    <col min="15" max="15" width="21.85546875" customWidth="true"/>
+    <col min="16" max="16" width="21.42578125" customWidth="true"/>
+    <col min="17" max="17" width="23.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" customHeight="true">
+      <c r="A1" t="s" s="5">
+        <v>59</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>4511.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.6245954692556634</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>4742.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.5938511326860841</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>4604.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.6245954692556634</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>4511.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.6326860841423948</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>4431.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>0.587378640776699</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>4487.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.6699029126213593</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true"/>
+    <col min="3" max="3" width="22.0" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true"/>
+    <col min="9" max="9" width="19.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.5703125" customWidth="true"/>
+    <col min="11" max="11" width="20.5703125" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="14" max="14" width="18.28515625" customWidth="true"/>
+    <col min="15" max="15" width="21.85546875" customWidth="true"/>
+    <col min="16" max="16" width="21.42578125" customWidth="true"/>
+    <col min="17" max="17" width="23.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" customHeight="true">
+      <c r="A1" t="s" s="5">
+        <v>60</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>4732.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.7119741100323624</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>4582.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.6779935275080906</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>4732.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.7152103559870551</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>6337.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>49.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.8851132686084142</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>5028.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>0.7119741100323624</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>4643.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.6472491909385113</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true"/>
+    <col min="3" max="3" width="22.0" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true"/>
+    <col min="9" max="9" width="19.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.5703125" customWidth="true"/>
+    <col min="11" max="11" width="20.5703125" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="14" max="14" width="18.28515625" customWidth="true"/>
+    <col min="15" max="15" width="21.85546875" customWidth="true"/>
+    <col min="16" max="16" width="21.42578125" customWidth="true"/>
+    <col min="17" max="17" width="23.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" customHeight="true">
+      <c r="A1" t="s" s="5">
+        <v>61</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>4678.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.6731391585760518</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>4645.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.6731391585760518</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>4810.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.7038834951456311</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>4836.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.7103559870550162</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>4678.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>0.6731391585760518</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>4588.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.6537216828478964</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true"/>
+    <col min="3" max="3" width="22.0" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true"/>
+    <col min="9" max="9" width="19.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.5703125" customWidth="true"/>
+    <col min="11" max="11" width="20.5703125" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="14" max="14" width="18.28515625" customWidth="true"/>
+    <col min="15" max="15" width="21.85546875" customWidth="true"/>
+    <col min="16" max="16" width="21.42578125" customWidth="true"/>
+    <col min="17" max="17" width="23.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" customHeight="true">
+      <c r="A1" t="s" s="5">
+        <v>62</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>4743.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.7540453074433657</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>4681.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.7038834951456311</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>4691.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.7427184466019418</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>4917.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.7944983818770227</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>4744.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>0.8284789644012945</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>4743.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.7540453074433657</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true"/>
+    <col min="3" max="3" width="22.0" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true"/>
+    <col min="9" max="9" width="19.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.5703125" customWidth="true"/>
+    <col min="11" max="11" width="20.5703125" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="14" max="14" width="18.28515625" customWidth="true"/>
+    <col min="15" max="15" width="21.85546875" customWidth="true"/>
+    <col min="16" max="16" width="21.42578125" customWidth="true"/>
+    <col min="17" max="17" width="23.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" customHeight="true">
+      <c r="A1" t="s" s="5">
+        <v>63</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>6676.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>1.192556634304207</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>6676.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.9223300970873787</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>6206.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>122.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>1.255663430420712</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>8052.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>65.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>1.192556634304207</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>23144.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>157.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>2.605177993527508</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>5311.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.8802588996763754</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true"/>
+    <col min="3" max="3" width="22.0" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true"/>
+    <col min="9" max="9" width="19.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.5703125" customWidth="true"/>
+    <col min="11" max="11" width="20.5703125" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="14" max="14" width="18.28515625" customWidth="true"/>
+    <col min="15" max="15" width="21.85546875" customWidth="true"/>
+    <col min="16" max="16" width="21.42578125" customWidth="true"/>
+    <col min="17" max="17" width="23.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" customHeight="true">
+      <c r="A1" t="s" s="5">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>4865.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.7233009708737864</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>4865.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.7200647249190939</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>4823.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.7055016181229773</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>4675.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.7233009708737864</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>5632.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>1.2993527508090614</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>6012.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.7912621359223301</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true"/>
+    <col min="3" max="3" width="22.0" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true"/>
+    <col min="9" max="9" width="19.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.5703125" customWidth="true"/>
+    <col min="11" max="11" width="20.5703125" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="14" max="14" width="18.28515625" customWidth="true"/>
+    <col min="15" max="15" width="21.85546875" customWidth="true"/>
+    <col min="16" max="16" width="21.42578125" customWidth="true"/>
+    <col min="17" max="17" width="23.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" customHeight="true">
+      <c r="A1" t="s" s="5">
+        <v>65</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>4881.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.8398058252427184</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>4860.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.8867313915857605</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>4838.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.7702265372168284</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>4881.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.8398058252427184</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>5041.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>0.813915857605178</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>4978.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.8543689320388349</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -881,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>162388.0</v>
+        <v>4187.0</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
@@ -889,7 +5121,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>19.671521035598705</v>
+        <v>0.3786407766990291</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
@@ -982,16 +5214,16 @@
         <v>0.0</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>149127.0</v>
+        <v>4417.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>1009.0</v>
+        <v>18.0</v>
       </c>
       <c r="D12" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>19.857605177993527</v>
+        <v>0.3786407766990291</v>
       </c>
       <c r="F12" t="n" s="0">
         <v>0.0</v>
@@ -1035,16 +5267,16 @@
         <v>1.0</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>143894.0</v>
+        <v>4187.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>761.0</v>
+        <v>17.0</v>
       </c>
       <c r="D13" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>17.733009708737864</v>
+        <v>0.37702265372168287</v>
       </c>
       <c r="F13" t="n" s="0">
         <v>0.0</v>
@@ -1088,16 +5320,16 @@
         <v>2.0</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>162388.0</v>
+        <v>4261.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>1088.0</v>
+        <v>25.0</v>
       </c>
       <c r="D14" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>19.218446601941746</v>
+        <v>0.3948220064724919</v>
       </c>
       <c r="F14" t="n" s="0">
         <v>0.0</v>
@@ -1141,16 +5373,16 @@
         <v>3.0</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>181338.0</v>
+        <v>4154.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>941.0</v>
+        <v>23.0</v>
       </c>
       <c r="D15" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>21.723300970873787</v>
+        <v>0.36245954692556637</v>
       </c>
       <c r="F15" t="n" s="0">
         <v>0.0</v>
@@ -1194,16 +5426,848 @@
         <v>4.0</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>182415.0</v>
+        <v>4162.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>775.0</v>
+        <v>21.0</v>
       </c>
       <c r="D16" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>19.671521035598705</v>
+        <v>0.39805825242718446</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true"/>
+    <col min="3" max="3" width="22.0" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true"/>
+    <col min="9" max="9" width="19.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.5703125" customWidth="true"/>
+    <col min="11" max="11" width="20.5703125" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="14" max="14" width="18.28515625" customWidth="true"/>
+    <col min="15" max="15" width="21.85546875" customWidth="true"/>
+    <col min="16" max="16" width="21.42578125" customWidth="true"/>
+    <col min="17" max="17" width="23.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" customHeight="true">
+      <c r="A1" t="s" s="5">
+        <v>66</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>5308.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.8883495145631068</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>5209.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.8284789644012945</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>5261.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.8284789644012945</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>5570.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.8883495145631068</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>5308.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>0.9660194174757282</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>6577.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>63.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>1.2993527508090614</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true"/>
+    <col min="3" max="3" width="22.0" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true"/>
+    <col min="9" max="9" width="19.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.5703125" customWidth="true"/>
+    <col min="11" max="11" width="20.5703125" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="14" max="14" width="18.28515625" customWidth="true"/>
+    <col min="15" max="15" width="21.85546875" customWidth="true"/>
+    <col min="16" max="16" width="21.42578125" customWidth="true"/>
+    <col min="17" max="17" width="23.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" customHeight="true">
+      <c r="A1" t="s" s="5">
+        <v>67</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>5444.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.8754045307443366</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>5804.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.9498381877022654</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>6780.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.8398058252427184</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>5444.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.8737864077669902</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>5240.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>0.8754045307443366</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>5327.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.9514563106796117</v>
       </c>
       <c r="F16" t="n" s="0">
         <v>0.0</v>
@@ -1297,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>165773.0</v>
+        <v>4177.0</v>
       </c>
     </row>
     <row r="5" ht="15.0" customHeight="true">
@@ -1305,7 +6369,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>18.681229773462782</v>
+        <v>0.41262135922330095</v>
       </c>
     </row>
     <row r="6" ht="15.0" customHeight="true">
@@ -1398,16 +6462,16 @@
         <v>0.0</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>165773.0</v>
+        <v>4051.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>1132.0</v>
+        <v>28.0</v>
       </c>
       <c r="D12" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>18.741100323624597</v>
+        <v>0.42394822006472493</v>
       </c>
       <c r="F12" t="n" s="0">
         <v>0.0</v>
@@ -1451,16 +6515,16 @@
         <v>1.0</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>174375.0</v>
+        <v>4106.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>1399.0</v>
+        <v>38.0</v>
       </c>
       <c r="D13" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>19.45145631067961</v>
+        <v>0.39967637540453077</v>
       </c>
       <c r="F13" t="n" s="0">
         <v>0.0</v>
@@ -1504,16 +6568,16 @@
         <v>2.0</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>166449.0</v>
+        <v>4177.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>1119.0</v>
+        <v>24.0</v>
       </c>
       <c r="D14" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>18.681229773462782</v>
+        <v>0.41262135922330095</v>
       </c>
       <c r="F14" t="n" s="0">
         <v>0.0</v>
@@ -1557,16 +6621,16 @@
         <v>3.0</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>133298.0</v>
+        <v>4281.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>668.0</v>
+        <v>31.0</v>
       </c>
       <c r="D15" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>15.21359223300971</v>
+        <v>0.40129449838187703</v>
       </c>
       <c r="F15" t="n" s="0">
         <v>0.0</v>
@@ -1610,16 +6674,2512 @@
         <v>4.0</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>140785.0</v>
+        <v>4323.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>715.0</v>
+        <v>37.0</v>
       </c>
       <c r="D16" t="n" s="0">
         <v>0.0</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>17.401294498381876</v>
+        <v>0.4482200647249191</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true"/>
+    <col min="3" max="3" width="22.0" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true"/>
+    <col min="9" max="9" width="19.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.5703125" customWidth="true"/>
+    <col min="11" max="11" width="20.5703125" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="14" max="14" width="18.28515625" customWidth="true"/>
+    <col min="15" max="15" width="21.85546875" customWidth="true"/>
+    <col min="16" max="16" width="21.42578125" customWidth="true"/>
+    <col min="17" max="17" width="23.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" customHeight="true">
+      <c r="A1" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>4145.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.41423948220064727</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>4145.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.41423948220064727</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>4233.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.4045307443365696</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>4112.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.4045307443365696</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>4161.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>0.42071197411003236</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>4103.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.45145631067961167</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true"/>
+    <col min="3" max="3" width="22.0" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true"/>
+    <col min="9" max="9" width="19.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.5703125" customWidth="true"/>
+    <col min="11" max="11" width="20.5703125" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="14" max="14" width="18.28515625" customWidth="true"/>
+    <col min="15" max="15" width="21.85546875" customWidth="true"/>
+    <col min="16" max="16" width="21.42578125" customWidth="true"/>
+    <col min="17" max="17" width="23.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" customHeight="true">
+      <c r="A1" t="s" s="5">
+        <v>51</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>4185.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.459546925566343</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>4185.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.4741100323624595</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>4067.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.3883495145631068</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>4213.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.459546925566343</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>4281.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>0.4692556634304207</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>4131.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.44660194174757284</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true"/>
+    <col min="3" max="3" width="22.0" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true"/>
+    <col min="9" max="9" width="19.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.5703125" customWidth="true"/>
+    <col min="11" max="11" width="20.5703125" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="14" max="14" width="18.28515625" customWidth="true"/>
+    <col min="15" max="15" width="21.85546875" customWidth="true"/>
+    <col min="16" max="16" width="21.42578125" customWidth="true"/>
+    <col min="17" max="17" width="23.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" customHeight="true">
+      <c r="A1" t="s" s="5">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>4213.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.44660194174757284</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>4156.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.43042071197411</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>4375.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.47572815533980584</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>4261.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.44660194174757284</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>4213.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>0.5129449838187702</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>4168.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.44660194174757284</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true"/>
+    <col min="3" max="3" width="22.0" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true"/>
+    <col min="9" max="9" width="19.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.5703125" customWidth="true"/>
+    <col min="11" max="11" width="20.5703125" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="14" max="14" width="18.28515625" customWidth="true"/>
+    <col min="15" max="15" width="21.85546875" customWidth="true"/>
+    <col min="16" max="16" width="21.42578125" customWidth="true"/>
+    <col min="17" max="17" width="23.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" customHeight="true">
+      <c r="A1" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>4318.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>4340.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.5194174757281553</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>4318.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>4111.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.4692556634304207</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>4339.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>0.48220064724919093</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>4290.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.5485436893203883</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true"/>
+    <col min="3" max="3" width="22.0" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true"/>
+    <col min="9" max="9" width="19.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.5703125" customWidth="true"/>
+    <col min="11" max="11" width="20.5703125" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="14" max="14" width="18.28515625" customWidth="true"/>
+    <col min="15" max="15" width="21.85546875" customWidth="true"/>
+    <col min="16" max="16" width="21.42578125" customWidth="true"/>
+    <col min="17" max="17" width="23.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" customHeight="true">
+      <c r="A1" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>4363.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.5420711974110033</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>4381.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.6310679611650486</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>4335.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.49029126213592233</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>4333.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.4223300970873786</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>4363.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>0.5533980582524272</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>4491.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.5420711974110033</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <printOptions verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="1" draft="false" fitToHeight="1" fitToWidth="1" horizontalDpi="600" blackAndWhite="false" firstPageNumber="1" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="true" verticalDpi="600"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryRight="true" summaryBelow="true"/>
+    <pageSetUpPr autoPageBreaks="true" fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="true"/>
+    <col min="2" max="2" width="23.42578125" customWidth="true"/>
+    <col min="3" max="3" width="22.0" customWidth="true"/>
+    <col min="4" max="4" width="18.85546875" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true"/>
+    <col min="8" max="8" width="21.5703125" customWidth="true"/>
+    <col min="9" max="9" width="19.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.5703125" customWidth="true"/>
+    <col min="11" max="11" width="20.5703125" customWidth="true"/>
+    <col min="12" max="12" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="16.5703125" customWidth="true"/>
+    <col min="14" max="14" width="18.28515625" customWidth="true"/>
+    <col min="15" max="15" width="21.85546875" customWidth="true"/>
+    <col min="16" max="16" width="21.42578125" customWidth="true"/>
+    <col min="17" max="17" width="23.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.75" customHeight="true">
+      <c r="A1" t="s" s="5">
+        <v>55</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>4345.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.5194174757281553</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="true">
+      <c r="A8" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="true">
+      <c r="A9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="true">
+      <c r="A11" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="true">
+      <c r="A12" t="n" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>4503.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>0.5323624595469255</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="true">
+      <c r="A13" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>4345.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>0.4935275080906149</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="true">
+      <c r="A14" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>4226.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>0.44660194174757284</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="true">
+      <c r="A15" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>4365.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>0.5194174757281553</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="N15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="P15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="true">
+      <c r="A16" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>4274.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>0.5388349514563107</v>
       </c>
       <c r="F16" t="n" s="0">
         <v>0.0</v>
